--- a/config/SoundCongfig.xlsx
+++ b/config/SoundCongfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19095" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>编号</t>
   </si>
   <si>
-    <t>类型1.音乐、2.按键音效</t>
+    <t>类型1.背景音乐、2.按键音效</t>
   </si>
   <si>
     <t>音频名称</t>
@@ -85,13 +85,37 @@
     <t>船坞背景</t>
   </si>
   <si>
+    <t>young_bg_mp3</t>
+  </si>
+  <si>
+    <t>开始投资股票背景2</t>
+  </si>
+  <si>
     <t>anjian_mp3</t>
   </si>
   <si>
     <t>按键音效</t>
   </si>
   <si>
-    <t>滑来滑去音效</t>
+    <t>stock_data_mp3</t>
+  </si>
+  <si>
+    <t>竞猜3s一次数据</t>
+  </si>
+  <si>
+    <t>price_bottom_mp3</t>
+  </si>
+  <si>
+    <t>倍率选择</t>
+  </si>
+  <si>
+    <t>bet_bottom_mp3</t>
+  </si>
+  <si>
+    <t>区域选择</t>
+  </si>
+  <si>
+    <t>涨跌选择</t>
   </si>
 </sst>
 </file>
@@ -99,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -121,22 +145,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,109 +226,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,6 +257,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -273,19 +297,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,84 +471,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -382,78 +478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +491,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -515,6 +526,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -525,6 +545,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -544,26 +588,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -572,149 +596,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,6 +746,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,17 +1079,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1206,12 +1234,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" s="3" customFormat="1" spans="1:4">
       <c r="A11" s="2">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -1222,17 +1250,76 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>201</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>202</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>203</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>204</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A65:$XFD106">
+  <conditionalFormatting sqref="$A66:$XFD107">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="notEqual">
       <formula>INDIRECT("Dummy_for_Comparison1!"&amp;ADDRESS(ROW(),COLUMN()))</formula>
     </cfRule>
@@ -1243,6 +1330,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>